--- a/Code/Results/Cases/Case_1_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_245/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9738705651014383</v>
+        <v>1.016124982111738</v>
       </c>
       <c r="D2">
-        <v>1.036955322714263</v>
+        <v>1.043894830642576</v>
       </c>
       <c r="E2">
-        <v>0.9837907754130665</v>
+        <v>1.017677374847453</v>
       </c>
       <c r="F2">
-        <v>1.031348244085488</v>
+        <v>1.048137536470974</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050972385100472</v>
+        <v>1.036598690647282</v>
       </c>
       <c r="J2">
-        <v>0.9968619148298591</v>
+        <v>1.021346577523786</v>
       </c>
       <c r="K2">
-        <v>1.047922743898525</v>
+        <v>1.046667409750793</v>
       </c>
       <c r="L2">
-        <v>0.9954806468094037</v>
+        <v>1.020525852793088</v>
       </c>
       <c r="M2">
-        <v>1.042387462906863</v>
+        <v>1.050898220351085</v>
       </c>
       <c r="N2">
-        <v>0.9982775730905772</v>
+        <v>1.022797006813959</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9789612203496895</v>
+        <v>1.017205078611163</v>
       </c>
       <c r="D3">
-        <v>1.039534738645787</v>
+        <v>1.044443557837969</v>
       </c>
       <c r="E3">
-        <v>0.9878783997927533</v>
+        <v>1.018597832551408</v>
       </c>
       <c r="F3">
-        <v>1.034800724297223</v>
+        <v>1.048899337674078</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051686091445572</v>
+        <v>1.036685689491114</v>
       </c>
       <c r="J3">
-        <v>1.000042331414608</v>
+        <v>1.022061300645976</v>
       </c>
       <c r="K3">
-        <v>1.049685571285883</v>
+        <v>1.047027950392333</v>
       </c>
       <c r="L3">
-        <v>0.9986687648145576</v>
+        <v>1.021251640192673</v>
       </c>
       <c r="M3">
-        <v>1.04500687519126</v>
+        <v>1.051472136450446</v>
       </c>
       <c r="N3">
-        <v>1.001462506231676</v>
+        <v>1.023512744924963</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9821844145901535</v>
+        <v>1.017904506731288</v>
       </c>
       <c r="D4">
-        <v>1.04117187990682</v>
+        <v>1.044798477238836</v>
       </c>
       <c r="E4">
-        <v>0.9904733751803529</v>
+        <v>1.019194241347825</v>
       </c>
       <c r="F4">
-        <v>1.036992664958795</v>
+        <v>1.049392436457418</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052127809367376</v>
+        <v>1.036740602532535</v>
       </c>
       <c r="J4">
-        <v>1.002055090992302</v>
+        <v>1.022523792877596</v>
       </c>
       <c r="K4">
-        <v>1.050797548249698</v>
+        <v>1.047260393243156</v>
       </c>
       <c r="L4">
-        <v>1.000688154498433</v>
+        <v>1.02172146245629</v>
       </c>
       <c r="M4">
-        <v>1.046664216231497</v>
+        <v>1.051842998256935</v>
       </c>
       <c r="N4">
-        <v>1.003478124158836</v>
+        <v>1.023975893948601</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9835231892009806</v>
+        <v>1.018198674171667</v>
       </c>
       <c r="D5">
-        <v>1.041852669970454</v>
+        <v>1.044947649021849</v>
       </c>
       <c r="E5">
-        <v>0.9915527982493214</v>
+        <v>1.019445165209651</v>
       </c>
       <c r="F5">
-        <v>1.037904374443964</v>
+        <v>1.049599772204728</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052308763906251</v>
+        <v>1.036763356650771</v>
       </c>
       <c r="J5">
-        <v>1.002890831399852</v>
+        <v>1.022718228724144</v>
       </c>
       <c r="K5">
-        <v>1.051258294895458</v>
+        <v>1.047357907083703</v>
       </c>
       <c r="L5">
-        <v>1.001527064347975</v>
+        <v>1.021919020633751</v>
       </c>
       <c r="M5">
-        <v>1.04735219089838</v>
+        <v>1.051998787232672</v>
       </c>
       <c r="N5">
-        <v>1.004315051413626</v>
+        <v>1.024170605916353</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9837470415114896</v>
+        <v>1.018248073681443</v>
       </c>
       <c r="D6">
-        <v>1.041966544880631</v>
+        <v>1.04497269343432</v>
       </c>
       <c r="E6">
-        <v>0.9917333765091146</v>
+        <v>1.019487307766448</v>
       </c>
       <c r="F6">
-        <v>1.038056888815749</v>
+        <v>1.04963458690519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052338870700353</v>
+        <v>1.036767157717844</v>
       </c>
       <c r="J6">
-        <v>1.003030555666899</v>
+        <v>1.022750875589804</v>
       </c>
       <c r="K6">
-        <v>1.051335265663623</v>
+        <v>1.047374268016943</v>
       </c>
       <c r="L6">
-        <v>1.001667342852104</v>
+        <v>1.021952194141809</v>
       </c>
       <c r="M6">
-        <v>1.047467196936073</v>
+        <v>1.052024937727099</v>
       </c>
       <c r="N6">
-        <v>1.004454974105158</v>
+        <v>1.024203299144307</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9822023663486714</v>
+        <v>1.017908436908429</v>
       </c>
       <c r="D7">
-        <v>1.041181005757833</v>
+        <v>1.044800470624689</v>
       </c>
       <c r="E7">
-        <v>0.9904878430938389</v>
+        <v>1.01919759344474</v>
       </c>
       <c r="F7">
-        <v>1.037004885337557</v>
+        <v>1.049395206744739</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052130245842448</v>
+        <v>1.03674090787694</v>
       </c>
       <c r="J7">
-        <v>1.002066298649795</v>
+        <v>1.022526390923155</v>
       </c>
       <c r="K7">
-        <v>1.050803731026079</v>
+        <v>1.047261697035665</v>
       </c>
       <c r="L7">
-        <v>1.000699403019946</v>
+        <v>1.021724102062431</v>
       </c>
       <c r="M7">
-        <v>1.046673443153633</v>
+        <v>1.051845080395564</v>
       </c>
       <c r="N7">
-        <v>1.003489347732489</v>
+        <v>1.023978495683682</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9756060657049581</v>
+        <v>1.016489895410684</v>
       </c>
       <c r="D8">
-        <v>1.037833764935488</v>
+        <v>1.04408030419311</v>
       </c>
       <c r="E8">
-        <v>0.9851828451908997</v>
+        <v>1.017988279543569</v>
       </c>
       <c r="F8">
-        <v>1.032523906632891</v>
+        <v>1.04839495598871</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05121778889118</v>
+        <v>1.036628377842328</v>
       </c>
       <c r="J8">
-        <v>0.9979463505738392</v>
+        <v>1.021588117499817</v>
       </c>
       <c r="K8">
-        <v>1.048524526782935</v>
+        <v>1.046789431530405</v>
       </c>
       <c r="L8">
-        <v>0.9965673367422673</v>
+        <v>1.020771096598984</v>
       </c>
       <c r="M8">
-        <v>1.043280630981894</v>
+        <v>1.051092280636033</v>
       </c>
       <c r="N8">
-        <v>0.9993635488577003</v>
+        <v>1.023038889804462</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9634069969781439</v>
+        <v>1.013994322980224</v>
       </c>
       <c r="D9">
-        <v>1.031682731921955</v>
+        <v>1.042810261852656</v>
       </c>
       <c r="E9">
-        <v>0.9754297215284974</v>
+        <v>1.015863551461126</v>
       </c>
       <c r="F9">
-        <v>1.024292372894558</v>
+        <v>1.046633713303387</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049452753838583</v>
+        <v>1.036419539538403</v>
       </c>
       <c r="J9">
-        <v>0.990321585829699</v>
+        <v>1.019934916795065</v>
       </c>
       <c r="K9">
-        <v>1.044281873019532</v>
+        <v>1.045950782560976</v>
       </c>
       <c r="L9">
-        <v>0.9889344234775264</v>
+        <v>1.019093247164828</v>
       </c>
       <c r="M9">
-        <v>1.037003245507003</v>
+        <v>1.049761988321898</v>
       </c>
       <c r="N9">
-        <v>0.9917279560730506</v>
+        <v>1.021383341365085</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9548371611036189</v>
+        <v>1.012333338517514</v>
       </c>
       <c r="D10">
-        <v>1.027399705386864</v>
+        <v>1.041962996489378</v>
       </c>
       <c r="E10">
-        <v>0.9686220630614735</v>
+        <v>1.014451292319811</v>
       </c>
       <c r="F10">
-        <v>1.018559098122093</v>
+        <v>1.045460554614864</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048165532454561</v>
+        <v>1.036273265164189</v>
       </c>
       <c r="J10">
-        <v>0.9849647510694548</v>
+        <v>1.018832906616808</v>
       </c>
       <c r="K10">
-        <v>1.041291265906825</v>
+        <v>1.045387424397937</v>
       </c>
       <c r="L10">
-        <v>0.9835819486920551</v>
+        <v>1.017975690923866</v>
       </c>
       <c r="M10">
-        <v>1.032601156989202</v>
+        <v>1.048872688817748</v>
       </c>
       <c r="N10">
-        <v>0.9863635139930095</v>
+        <v>1.020279766205972</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9510102871209475</v>
+        <v>1.011614758077194</v>
       </c>
       <c r="D11">
-        <v>1.02549886999549</v>
+        <v>1.041596009808772</v>
       </c>
       <c r="E11">
-        <v>0.9655936474644448</v>
+        <v>1.013840777224535</v>
       </c>
       <c r="F11">
-        <v>1.016013426790807</v>
+        <v>1.044952825116729</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047580749391464</v>
+        <v>1.036208263596358</v>
       </c>
       <c r="J11">
-        <v>0.9825733150340232</v>
+        <v>1.018355756636741</v>
       </c>
       <c r="K11">
-        <v>1.039955419907226</v>
+        <v>1.045142491245955</v>
       </c>
       <c r="L11">
-        <v>0.9811949550390262</v>
+        <v>1.017492020661047</v>
       </c>
       <c r="M11">
-        <v>1.030639542499418</v>
+        <v>1.048487053310095</v>
       </c>
       <c r="N11">
-        <v>0.983968681844106</v>
+        <v>1.019801938618203</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9495702209373272</v>
+        <v>1.011347940582448</v>
       </c>
       <c r="D12">
-        <v>1.024785591011428</v>
+        <v>1.041459679234662</v>
       </c>
       <c r="E12">
-        <v>0.9644558839387131</v>
+        <v>1.013614155783613</v>
       </c>
       <c r="F12">
-        <v>1.015057920382424</v>
+        <v>1.044764272086699</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047359307381979</v>
+        <v>1.036183869836435</v>
       </c>
       <c r="J12">
-        <v>0.9816735795362568</v>
+        <v>1.018178526244488</v>
       </c>
       <c r="K12">
-        <v>1.039452860524554</v>
+        <v>1.045051364006105</v>
       </c>
       <c r="L12">
-        <v>0.9802972755978062</v>
+        <v>1.017312400179648</v>
       </c>
       <c r="M12">
-        <v>1.029902210737501</v>
+        <v>1.048343728062189</v>
       </c>
       <c r="N12">
-        <v>0.9830676686187315</v>
+        <v>1.019624456538465</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9498799810929778</v>
+        <v>1.011405169535659</v>
       </c>
       <c r="D13">
-        <v>1.024938923292267</v>
+        <v>1.041488923270792</v>
       </c>
       <c r="E13">
-        <v>0.9647005335353792</v>
+        <v>1.013662760009546</v>
       </c>
       <c r="F13">
-        <v>1.015263336660229</v>
+        <v>1.044804715497713</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047407000601658</v>
+        <v>1.036189113650387</v>
       </c>
       <c r="J13">
-        <v>0.9818671049769547</v>
+        <v>1.018216542565012</v>
       </c>
       <c r="K13">
-        <v>1.039560953079174</v>
+        <v>1.045070917790934</v>
       </c>
       <c r="L13">
-        <v>0.9804903412559666</v>
+        <v>1.017350927740339</v>
       </c>
       <c r="M13">
-        <v>1.030060770794849</v>
+        <v>1.0483744755481</v>
       </c>
       <c r="N13">
-        <v>0.983261468887753</v>
+        <v>1.019662526846524</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9508916371536599</v>
+        <v>1.011592700918511</v>
       </c>
       <c r="D14">
-        <v>1.025440059154069</v>
+        <v>1.041584740983652</v>
       </c>
       <c r="E14">
-        <v>0.9654998668207626</v>
+        <v>1.013822041541607</v>
       </c>
       <c r="F14">
-        <v>1.015934649612353</v>
+        <v>1.044937238431367</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047562531829802</v>
+        <v>1.036206252281912</v>
       </c>
       <c r="J14">
-        <v>0.9824991801263806</v>
+        <v>1.018341106627248</v>
       </c>
       <c r="K14">
-        <v>1.039914009415724</v>
+        <v>1.04513496165438</v>
       </c>
       <c r="L14">
-        <v>0.9811209816679358</v>
+        <v>1.01747717243609</v>
       </c>
       <c r="M14">
-        <v>1.030578774127104</v>
+        <v>1.04847520768577</v>
       </c>
       <c r="N14">
-        <v>0.9838944416563914</v>
+        <v>1.019787267804016</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9515124516540625</v>
+        <v>1.011708257806043</v>
       </c>
       <c r="D15">
-        <v>1.025747859713141</v>
+        <v>1.041643775458241</v>
       </c>
       <c r="E15">
-        <v>0.9659906326742536</v>
+        <v>1.013920200179214</v>
       </c>
       <c r="F15">
-        <v>1.016346937861717</v>
+        <v>1.045018895581832</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047657796142099</v>
+        <v>1.036216778946386</v>
       </c>
       <c r="J15">
-        <v>0.9828870849923174</v>
+        <v>1.018417855240115</v>
       </c>
       <c r="K15">
-        <v>1.040130688491855</v>
+        <v>1.045174401600659</v>
       </c>
       <c r="L15">
-        <v>0.9815080570398863</v>
+        <v>1.017554960763877</v>
       </c>
       <c r="M15">
-        <v>1.030896768755081</v>
+        <v>1.048537261121052</v>
       </c>
       <c r="N15">
-        <v>0.9842828973917308</v>
+        <v>1.019864125408717</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9550885960469966</v>
+        <v>1.012381041717336</v>
       </c>
       <c r="D16">
-        <v>1.027524859978373</v>
+        <v>1.041987349924349</v>
       </c>
       <c r="E16">
-        <v>0.9688212864133648</v>
+        <v>1.014491831353991</v>
       </c>
       <c r="F16">
-        <v>1.018726678531959</v>
+        <v>1.045494256500886</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048203755935154</v>
+        <v>1.036277544108218</v>
       </c>
       <c r="J16">
-        <v>0.985121893942413</v>
+        <v>1.01886457408961</v>
       </c>
       <c r="K16">
-        <v>1.041379041357518</v>
+        <v>1.045403658951476</v>
       </c>
       <c r="L16">
-        <v>0.9837388524007575</v>
+        <v>1.018007795585506</v>
       </c>
       <c r="M16">
-        <v>1.032730143371955</v>
+        <v>1.048898270446034</v>
       </c>
       <c r="N16">
-        <v>0.986520880026872</v>
+        <v>1.020311478650217</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9572999535000998</v>
+        <v>1.012803231496654</v>
       </c>
       <c r="D17">
-        <v>1.028626952942211</v>
+        <v>1.042202835632306</v>
       </c>
       <c r="E17">
-        <v>0.970574770805631</v>
+        <v>1.014850669180482</v>
       </c>
       <c r="F17">
-        <v>1.020202220742414</v>
+        <v>1.04579250768644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048538809175545</v>
+        <v>1.036315215525682</v>
       </c>
       <c r="J17">
-        <v>0.9865040413789214</v>
+        <v>1.019144796573791</v>
       </c>
       <c r="K17">
-        <v>1.042150999300304</v>
+        <v>1.045547200522158</v>
       </c>
       <c r="L17">
-        <v>0.9851191810889619</v>
+        <v>1.018291911085552</v>
       </c>
       <c r="M17">
-        <v>1.033865067225249</v>
+        <v>1.049124572418987</v>
       </c>
       <c r="N17">
-        <v>0.9879049902712747</v>
+        <v>1.020592099082468</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9585786839571531</v>
+        <v>1.013049549119455</v>
       </c>
       <c r="D18">
-        <v>1.029265341515463</v>
+        <v>1.042328513557489</v>
       </c>
       <c r="E18">
-        <v>0.9715898208382643</v>
+        <v>1.015060069903877</v>
       </c>
       <c r="F18">
-        <v>1.021056820643309</v>
+        <v>1.045966497128662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04873160344593</v>
+        <v>1.03633702804794</v>
       </c>
       <c r="J18">
-        <v>0.9873033346471939</v>
+        <v>1.019308248267232</v>
       </c>
       <c r="K18">
-        <v>1.042597339558631</v>
+        <v>1.045630829762803</v>
       </c>
       <c r="L18">
-        <v>0.9859176583695054</v>
+        <v>1.018457653887013</v>
       </c>
       <c r="M18">
-        <v>1.03452172202994</v>
+        <v>1.049256516111987</v>
       </c>
       <c r="N18">
-        <v>0.9887054186276683</v>
+        <v>1.020755782896061</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9590128459040991</v>
+        <v>1.013133547501482</v>
       </c>
       <c r="D19">
-        <v>1.029482269847267</v>
+        <v>1.042371364516565</v>
       </c>
       <c r="E19">
-        <v>0.9719346379483519</v>
+        <v>1.01513148652601</v>
       </c>
       <c r="F19">
-        <v>1.021347202488941</v>
+        <v>1.046025827143363</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048796897300592</v>
+        <v>1.036344438296682</v>
       </c>
       <c r="J19">
-        <v>0.987574723196581</v>
+        <v>1.019363981515951</v>
       </c>
       <c r="K19">
-        <v>1.042748870012364</v>
+        <v>1.045659328825534</v>
       </c>
       <c r="L19">
-        <v>0.9861888095830167</v>
+        <v>1.01851417179791</v>
       </c>
       <c r="M19">
-        <v>1.034744731448918</v>
+        <v>1.049301496224614</v>
       </c>
       <c r="N19">
-        <v>0.988977192579924</v>
+        <v>1.020811595292387</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9570638536930383</v>
+        <v>1.012757928173771</v>
       </c>
       <c r="D20">
-        <v>1.028509170346657</v>
+        <v>1.042179717204134</v>
       </c>
       <c r="E20">
-        <v>0.9703874431273928</v>
+        <v>1.014812159273299</v>
       </c>
       <c r="F20">
-        <v>1.020044538858642</v>
+        <v>1.045760505601839</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048503134620267</v>
+        <v>1.036311190343522</v>
       </c>
       <c r="J20">
-        <v>0.9863564672211883</v>
+        <v>1.01911473107669</v>
       </c>
       <c r="K20">
-        <v>1.042068583552617</v>
+        <v>1.045531809803189</v>
       </c>
       <c r="L20">
-        <v>0.9849717765858741</v>
+        <v>1.018261425796254</v>
       </c>
       <c r="M20">
-        <v>1.033743854197793</v>
+        <v>1.04910029797675</v>
       </c>
       <c r="N20">
-        <v>0.9877572065413103</v>
+        <v>1.020561990888912</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9505942527322497</v>
+        <v>1.011537474973425</v>
       </c>
       <c r="D21">
-        <v>1.02529268885135</v>
+        <v>1.041556525464579</v>
       </c>
       <c r="E21">
-        <v>0.9652648448969379</v>
+        <v>1.013775132927139</v>
       </c>
       <c r="F21">
-        <v>1.015737242564389</v>
+        <v>1.044898212602746</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047516849382827</v>
+        <v>1.036201212258058</v>
       </c>
       <c r="J21">
-        <v>0.9823133712930043</v>
+        <v>1.018304425493793</v>
       </c>
       <c r="K21">
-        <v>1.039810220746605</v>
+        <v>1.045116106411786</v>
       </c>
       <c r="L21">
-        <v>0.98093558393305</v>
+        <v>1.017439995518422</v>
       </c>
       <c r="M21">
-        <v>1.030426478310487</v>
+        <v>1.04844554686225</v>
       </c>
       <c r="N21">
-        <v>0.9837083689531589</v>
+        <v>1.019750534579144</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9464183290505019</v>
+        <v>1.010770678651338</v>
       </c>
       <c r="D22">
-        <v>1.023228413208459</v>
+        <v>1.041164612041344</v>
       </c>
       <c r="E22">
-        <v>0.961969151949682</v>
+        <v>1.013123987446477</v>
       </c>
       <c r="F22">
-        <v>1.012971373399799</v>
+        <v>1.044356288919601</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046872213107808</v>
+        <v>1.036130622730941</v>
       </c>
       <c r="J22">
-        <v>0.9797047110828349</v>
+        <v>1.017794979510281</v>
       </c>
       <c r="K22">
-        <v>1.038353340420023</v>
+        <v>1.044853880651865</v>
       </c>
       <c r="L22">
-        <v>0.9783336255295959</v>
+        <v>1.016923739226637</v>
       </c>
       <c r="M22">
-        <v>1.028290171324364</v>
+        <v>1.04803339910091</v>
       </c>
       <c r="N22">
-        <v>0.9810960041462734</v>
+        <v>1.019240365123901</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9486427357990318</v>
+        <v>1.01117711978751</v>
       </c>
       <c r="D23">
-        <v>1.024326797380979</v>
+        <v>1.041372380467145</v>
       </c>
       <c r="E23">
-        <v>0.9637236311164786</v>
+        <v>1.013469088978251</v>
       </c>
       <c r="F23">
-        <v>1.014443239996557</v>
+        <v>1.044643550104049</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047216309971236</v>
+        <v>1.036168180026246</v>
       </c>
       <c r="J23">
-        <v>0.9810941554489491</v>
+        <v>1.018065044001812</v>
       </c>
       <c r="K23">
-        <v>1.039129242101974</v>
+        <v>1.044992972219733</v>
       </c>
       <c r="L23">
-        <v>0.979719285288559</v>
+        <v>1.017197396497385</v>
       </c>
       <c r="M23">
-        <v>1.029427587939059</v>
+        <v>1.048251931393134</v>
       </c>
       <c r="N23">
-        <v>0.982487421682759</v>
+        <v>1.019510813137988</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9571705713027236</v>
+        <v>1.012778398605191</v>
       </c>
       <c r="D24">
-        <v>1.028562404944308</v>
+        <v>1.042190163461667</v>
       </c>
       <c r="E24">
-        <v>0.9704721122674664</v>
+        <v>1.014829559943921</v>
       </c>
       <c r="F24">
-        <v>1.020115807206325</v>
+        <v>1.045774965890625</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048519262556185</v>
+        <v>1.036313009646311</v>
       </c>
       <c r="J24">
-        <v>0.9864231708752551</v>
+        <v>1.019128316372385</v>
       </c>
       <c r="K24">
-        <v>1.042105835809576</v>
+        <v>1.045538764503777</v>
       </c>
       <c r="L24">
-        <v>0.9850384028253114</v>
+        <v>1.018275200715029</v>
       </c>
       <c r="M24">
-        <v>1.03379864158327</v>
+        <v>1.049111266720609</v>
       </c>
       <c r="N24">
-        <v>0.9878240049222173</v>
+        <v>1.020575595477286</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9666338858006608</v>
+        <v>1.014639006152575</v>
       </c>
       <c r="D25">
-        <v>1.033304104308054</v>
+        <v>1.043138707059503</v>
       </c>
       <c r="E25">
-        <v>0.97800241410459</v>
+        <v>1.016412102081107</v>
       </c>
       <c r="F25">
-        <v>1.026462160522932</v>
+        <v>1.047088868053269</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049928162874269</v>
+        <v>1.036474774699796</v>
       </c>
       <c r="J25">
-        <v>0.9923388002969121</v>
+        <v>1.020362288348951</v>
       </c>
       <c r="K25">
-        <v>1.045406515023624</v>
+        <v>1.046168350083454</v>
       </c>
       <c r="L25">
-        <v>0.9909520908382188</v>
+        <v>1.019526835130779</v>
       </c>
       <c r="M25">
-        <v>1.038663118517553</v>
+        <v>1.050106337201052</v>
       </c>
       <c r="N25">
-        <v>0.9937480352161852</v>
+        <v>1.021811319835597</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_245/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016124982111738</v>
+        <v>0.9738705651014384</v>
       </c>
       <c r="D2">
-        <v>1.043894830642576</v>
+        <v>1.036955322714262</v>
       </c>
       <c r="E2">
-        <v>1.017677374847453</v>
+        <v>0.9837907754130669</v>
       </c>
       <c r="F2">
-        <v>1.048137536470974</v>
+        <v>1.031348244085487</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036598690647282</v>
+        <v>1.050972385100472</v>
       </c>
       <c r="J2">
-        <v>1.021346577523786</v>
+        <v>0.9968619148298594</v>
       </c>
       <c r="K2">
-        <v>1.046667409750793</v>
+        <v>1.047922743898525</v>
       </c>
       <c r="L2">
-        <v>1.020525852793088</v>
+        <v>0.9954806468094042</v>
       </c>
       <c r="M2">
-        <v>1.050898220351085</v>
+        <v>1.042387462906863</v>
       </c>
       <c r="N2">
-        <v>1.022797006813959</v>
+        <v>0.9982775730905773</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017205078611163</v>
+        <v>0.9789612203496895</v>
       </c>
       <c r="D3">
-        <v>1.044443557837969</v>
+        <v>1.039534738645787</v>
       </c>
       <c r="E3">
-        <v>1.018597832551408</v>
+        <v>0.9878783997927533</v>
       </c>
       <c r="F3">
-        <v>1.048899337674078</v>
+        <v>1.034800724297222</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036685689491114</v>
+        <v>1.051686091445572</v>
       </c>
       <c r="J3">
-        <v>1.022061300645976</v>
+        <v>1.000042331414608</v>
       </c>
       <c r="K3">
-        <v>1.047027950392333</v>
+        <v>1.049685571285883</v>
       </c>
       <c r="L3">
-        <v>1.021251640192673</v>
+        <v>0.9986687648145575</v>
       </c>
       <c r="M3">
-        <v>1.051472136450446</v>
+        <v>1.04500687519126</v>
       </c>
       <c r="N3">
-        <v>1.023512744924963</v>
+        <v>1.001462506231676</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017904506731288</v>
+        <v>0.9821844145901537</v>
       </c>
       <c r="D4">
-        <v>1.044798477238836</v>
+        <v>1.04117187990682</v>
       </c>
       <c r="E4">
-        <v>1.019194241347825</v>
+        <v>0.9904733751803529</v>
       </c>
       <c r="F4">
-        <v>1.049392436457418</v>
+        <v>1.036992664958795</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036740602532535</v>
+        <v>1.052127809367376</v>
       </c>
       <c r="J4">
-        <v>1.022523792877596</v>
+        <v>1.002055090992302</v>
       </c>
       <c r="K4">
-        <v>1.047260393243156</v>
+        <v>1.050797548249698</v>
       </c>
       <c r="L4">
-        <v>1.02172146245629</v>
+        <v>1.000688154498433</v>
       </c>
       <c r="M4">
-        <v>1.051842998256935</v>
+        <v>1.046664216231497</v>
       </c>
       <c r="N4">
-        <v>1.023975893948601</v>
+        <v>1.003478124158836</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018198674171667</v>
+        <v>0.9835231892009804</v>
       </c>
       <c r="D5">
-        <v>1.044947649021849</v>
+        <v>1.041852669970454</v>
       </c>
       <c r="E5">
-        <v>1.019445165209651</v>
+        <v>0.9915527982493212</v>
       </c>
       <c r="F5">
-        <v>1.049599772204728</v>
+        <v>1.037904374443964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036763356650771</v>
+        <v>1.052308763906251</v>
       </c>
       <c r="J5">
-        <v>1.022718228724144</v>
+        <v>1.002890831399852</v>
       </c>
       <c r="K5">
-        <v>1.047357907083703</v>
+        <v>1.051258294895458</v>
       </c>
       <c r="L5">
-        <v>1.021919020633751</v>
+        <v>1.001527064347975</v>
       </c>
       <c r="M5">
-        <v>1.051998787232672</v>
+        <v>1.04735219089838</v>
       </c>
       <c r="N5">
-        <v>1.024170605916353</v>
+        <v>1.004315051413626</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018248073681443</v>
+        <v>0.9837470415114897</v>
       </c>
       <c r="D6">
-        <v>1.04497269343432</v>
+        <v>1.041966544880631</v>
       </c>
       <c r="E6">
-        <v>1.019487307766448</v>
+        <v>0.9917333765091148</v>
       </c>
       <c r="F6">
-        <v>1.04963458690519</v>
+        <v>1.03805688881575</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036767157717844</v>
+        <v>1.052338870700353</v>
       </c>
       <c r="J6">
-        <v>1.022750875589804</v>
+        <v>1.003030555666899</v>
       </c>
       <c r="K6">
-        <v>1.047374268016943</v>
+        <v>1.051335265663623</v>
       </c>
       <c r="L6">
-        <v>1.021952194141809</v>
+        <v>1.001667342852104</v>
       </c>
       <c r="M6">
-        <v>1.052024937727099</v>
+        <v>1.047467196936073</v>
       </c>
       <c r="N6">
-        <v>1.024203299144307</v>
+        <v>1.004454974105158</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017908436908429</v>
+        <v>0.9822023663486716</v>
       </c>
       <c r="D7">
-        <v>1.044800470624689</v>
+        <v>1.041181005757833</v>
       </c>
       <c r="E7">
-        <v>1.01919759344474</v>
+        <v>0.990487843093839</v>
       </c>
       <c r="F7">
-        <v>1.049395206744739</v>
+        <v>1.037004885337558</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03674090787694</v>
+        <v>1.052130245842448</v>
       </c>
       <c r="J7">
-        <v>1.022526390923155</v>
+        <v>1.002066298649795</v>
       </c>
       <c r="K7">
-        <v>1.047261697035665</v>
+        <v>1.05080373102608</v>
       </c>
       <c r="L7">
-        <v>1.021724102062431</v>
+        <v>1.000699403019946</v>
       </c>
       <c r="M7">
-        <v>1.051845080395564</v>
+        <v>1.046673443153634</v>
       </c>
       <c r="N7">
-        <v>1.023978495683682</v>
+        <v>1.003489347732489</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016489895410684</v>
+        <v>0.9756060657049581</v>
       </c>
       <c r="D8">
-        <v>1.04408030419311</v>
+        <v>1.037833764935488</v>
       </c>
       <c r="E8">
-        <v>1.017988279543569</v>
+        <v>0.9851828451908995</v>
       </c>
       <c r="F8">
-        <v>1.04839495598871</v>
+        <v>1.03252390663289</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036628377842328</v>
+        <v>1.05121778889118</v>
       </c>
       <c r="J8">
-        <v>1.021588117499817</v>
+        <v>0.9979463505738392</v>
       </c>
       <c r="K8">
-        <v>1.046789431530405</v>
+        <v>1.048524526782935</v>
       </c>
       <c r="L8">
-        <v>1.020771096598984</v>
+        <v>0.9965673367422673</v>
       </c>
       <c r="M8">
-        <v>1.051092280636033</v>
+        <v>1.043280630981894</v>
       </c>
       <c r="N8">
-        <v>1.023038889804462</v>
+        <v>0.9993635488577003</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013994322980224</v>
+        <v>0.9634069969781435</v>
       </c>
       <c r="D9">
-        <v>1.042810261852656</v>
+        <v>1.031682731921955</v>
       </c>
       <c r="E9">
-        <v>1.015863551461126</v>
+        <v>0.9754297215284968</v>
       </c>
       <c r="F9">
-        <v>1.046633713303387</v>
+        <v>1.024292372894558</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036419539538403</v>
+        <v>1.049452753838583</v>
       </c>
       <c r="J9">
-        <v>1.019934916795065</v>
+        <v>0.9903215858296988</v>
       </c>
       <c r="K9">
-        <v>1.045950782560976</v>
+        <v>1.044281873019532</v>
       </c>
       <c r="L9">
-        <v>1.019093247164828</v>
+        <v>0.9889344234775258</v>
       </c>
       <c r="M9">
-        <v>1.049761988321898</v>
+        <v>1.037003245507003</v>
       </c>
       <c r="N9">
-        <v>1.021383341365085</v>
+        <v>0.9917279560730503</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012333338517514</v>
+        <v>0.9548371611036189</v>
       </c>
       <c r="D10">
-        <v>1.041962996489378</v>
+        <v>1.027399705386864</v>
       </c>
       <c r="E10">
-        <v>1.014451292319811</v>
+        <v>0.9686220630614735</v>
       </c>
       <c r="F10">
-        <v>1.045460554614864</v>
+        <v>1.018559098122093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036273265164189</v>
+        <v>1.048165532454561</v>
       </c>
       <c r="J10">
-        <v>1.018832906616808</v>
+        <v>0.9849647510694549</v>
       </c>
       <c r="K10">
-        <v>1.045387424397937</v>
+        <v>1.041291265906825</v>
       </c>
       <c r="L10">
-        <v>1.017975690923866</v>
+        <v>0.9835819486920551</v>
       </c>
       <c r="M10">
-        <v>1.048872688817748</v>
+        <v>1.032601156989202</v>
       </c>
       <c r="N10">
-        <v>1.020279766205972</v>
+        <v>0.9863635139930096</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011614758077194</v>
+        <v>0.9510102871209472</v>
       </c>
       <c r="D11">
-        <v>1.041596009808772</v>
+        <v>1.02549886999549</v>
       </c>
       <c r="E11">
-        <v>1.013840777224535</v>
+        <v>0.965593647464445</v>
       </c>
       <c r="F11">
-        <v>1.044952825116729</v>
+        <v>1.016013426790807</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036208263596358</v>
+        <v>1.047580749391463</v>
       </c>
       <c r="J11">
-        <v>1.018355756636741</v>
+        <v>0.9825733150340233</v>
       </c>
       <c r="K11">
-        <v>1.045142491245955</v>
+        <v>1.039955419907226</v>
       </c>
       <c r="L11">
-        <v>1.017492020661047</v>
+        <v>0.9811949550390262</v>
       </c>
       <c r="M11">
-        <v>1.048487053310095</v>
+        <v>1.030639542499417</v>
       </c>
       <c r="N11">
-        <v>1.019801938618203</v>
+        <v>0.9839686818441061</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011347940582448</v>
+        <v>0.9495702209373273</v>
       </c>
       <c r="D12">
-        <v>1.041459679234662</v>
+        <v>1.024785591011428</v>
       </c>
       <c r="E12">
-        <v>1.013614155783613</v>
+        <v>0.9644558839387134</v>
       </c>
       <c r="F12">
-        <v>1.044764272086699</v>
+        <v>1.015057920382424</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036183869836435</v>
+        <v>1.047359307381979</v>
       </c>
       <c r="J12">
-        <v>1.018178526244488</v>
+        <v>0.9816735795362569</v>
       </c>
       <c r="K12">
-        <v>1.045051364006105</v>
+        <v>1.039452860524554</v>
       </c>
       <c r="L12">
-        <v>1.017312400179648</v>
+        <v>0.9802972755978063</v>
       </c>
       <c r="M12">
-        <v>1.048343728062189</v>
+        <v>1.0299022107375</v>
       </c>
       <c r="N12">
-        <v>1.019624456538465</v>
+        <v>0.9830676686187317</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011405169535659</v>
+        <v>0.949879981092978</v>
       </c>
       <c r="D13">
-        <v>1.041488923270792</v>
+        <v>1.024938923292267</v>
       </c>
       <c r="E13">
-        <v>1.013662760009546</v>
+        <v>0.9647005335353795</v>
       </c>
       <c r="F13">
-        <v>1.044804715497713</v>
+        <v>1.015263336660229</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036189113650387</v>
+        <v>1.047407000601658</v>
       </c>
       <c r="J13">
-        <v>1.018216542565012</v>
+        <v>0.9818671049769548</v>
       </c>
       <c r="K13">
-        <v>1.045070917790934</v>
+        <v>1.039560953079174</v>
       </c>
       <c r="L13">
-        <v>1.017350927740339</v>
+        <v>0.9804903412559668</v>
       </c>
       <c r="M13">
-        <v>1.0483744755481</v>
+        <v>1.030060770794849</v>
       </c>
       <c r="N13">
-        <v>1.019662526846524</v>
+        <v>0.9832614688877532</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011592700918511</v>
+        <v>0.9508916371536594</v>
       </c>
       <c r="D14">
-        <v>1.041584740983652</v>
+        <v>1.025440059154068</v>
       </c>
       <c r="E14">
-        <v>1.013822041541607</v>
+        <v>0.9654998668207621</v>
       </c>
       <c r="F14">
-        <v>1.044937238431367</v>
+        <v>1.015934649612353</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036206252281912</v>
+        <v>1.047562531829802</v>
       </c>
       <c r="J14">
-        <v>1.018341106627248</v>
+        <v>0.9824991801263803</v>
       </c>
       <c r="K14">
-        <v>1.04513496165438</v>
+        <v>1.039914009415724</v>
       </c>
       <c r="L14">
-        <v>1.01747717243609</v>
+        <v>0.9811209816679352</v>
       </c>
       <c r="M14">
-        <v>1.04847520768577</v>
+        <v>1.030578774127104</v>
       </c>
       <c r="N14">
-        <v>1.019787267804016</v>
+        <v>0.9838944416563908</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011708257806043</v>
+        <v>0.9515124516540632</v>
       </c>
       <c r="D15">
-        <v>1.041643775458241</v>
+        <v>1.025747859713141</v>
       </c>
       <c r="E15">
-        <v>1.013920200179214</v>
+        <v>0.9659906326742541</v>
       </c>
       <c r="F15">
-        <v>1.045018895581832</v>
+        <v>1.016346937861718</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036216778946386</v>
+        <v>1.047657796142099</v>
       </c>
       <c r="J15">
-        <v>1.018417855240115</v>
+        <v>0.9828870849923178</v>
       </c>
       <c r="K15">
-        <v>1.045174401600659</v>
+        <v>1.040130688491855</v>
       </c>
       <c r="L15">
-        <v>1.017554960763877</v>
+        <v>0.9815080570398866</v>
       </c>
       <c r="M15">
-        <v>1.048537261121052</v>
+        <v>1.030896768755081</v>
       </c>
       <c r="N15">
-        <v>1.019864125408717</v>
+        <v>0.9842828973917316</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012381041717336</v>
+        <v>0.9550885960469961</v>
       </c>
       <c r="D16">
-        <v>1.041987349924349</v>
+        <v>1.027524859978373</v>
       </c>
       <c r="E16">
-        <v>1.014491831353991</v>
+        <v>0.9688212864133645</v>
       </c>
       <c r="F16">
-        <v>1.045494256500886</v>
+        <v>1.018726678531959</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036277544108218</v>
+        <v>1.048203755935153</v>
       </c>
       <c r="J16">
-        <v>1.01886457408961</v>
+        <v>0.9851218939424127</v>
       </c>
       <c r="K16">
-        <v>1.045403658951476</v>
+        <v>1.041379041357517</v>
       </c>
       <c r="L16">
-        <v>1.018007795585506</v>
+        <v>0.983738852400757</v>
       </c>
       <c r="M16">
-        <v>1.048898270446034</v>
+        <v>1.032730143371955</v>
       </c>
       <c r="N16">
-        <v>1.020311478650217</v>
+        <v>0.9865208800268717</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012803231496654</v>
+        <v>0.9572999535000997</v>
       </c>
       <c r="D17">
-        <v>1.042202835632306</v>
+        <v>1.028626952942211</v>
       </c>
       <c r="E17">
-        <v>1.014850669180482</v>
+        <v>0.970574770805631</v>
       </c>
       <c r="F17">
-        <v>1.04579250768644</v>
+        <v>1.020202220742413</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036315215525682</v>
+        <v>1.048538809175545</v>
       </c>
       <c r="J17">
-        <v>1.019144796573791</v>
+        <v>0.9865040413789213</v>
       </c>
       <c r="K17">
-        <v>1.045547200522158</v>
+        <v>1.042150999300303</v>
       </c>
       <c r="L17">
-        <v>1.018291911085552</v>
+        <v>0.985119181088962</v>
       </c>
       <c r="M17">
-        <v>1.049124572418987</v>
+        <v>1.033865067225248</v>
       </c>
       <c r="N17">
-        <v>1.020592099082468</v>
+        <v>0.9879049902712745</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013049549119455</v>
+        <v>0.9585786839571531</v>
       </c>
       <c r="D18">
-        <v>1.042328513557489</v>
+        <v>1.029265341515463</v>
       </c>
       <c r="E18">
-        <v>1.015060069903877</v>
+        <v>0.9715898208382641</v>
       </c>
       <c r="F18">
-        <v>1.045966497128662</v>
+        <v>1.021056820643309</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03633702804794</v>
+        <v>1.04873160344593</v>
       </c>
       <c r="J18">
-        <v>1.019308248267232</v>
+        <v>0.987303334647194</v>
       </c>
       <c r="K18">
-        <v>1.045630829762803</v>
+        <v>1.042597339558631</v>
       </c>
       <c r="L18">
-        <v>1.018457653887013</v>
+        <v>0.9859176583695052</v>
       </c>
       <c r="M18">
-        <v>1.049256516111987</v>
+        <v>1.03452172202994</v>
       </c>
       <c r="N18">
-        <v>1.020755782896061</v>
+        <v>0.9887054186276684</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013133547501482</v>
+        <v>0.9590128459041</v>
       </c>
       <c r="D19">
-        <v>1.042371364516565</v>
+        <v>1.029482269847267</v>
       </c>
       <c r="E19">
-        <v>1.01513148652601</v>
+        <v>0.9719346379483526</v>
       </c>
       <c r="F19">
-        <v>1.046025827143363</v>
+        <v>1.021347202488942</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036344438296682</v>
+        <v>1.048796897300592</v>
       </c>
       <c r="J19">
-        <v>1.019363981515951</v>
+        <v>0.9875747231965817</v>
       </c>
       <c r="K19">
-        <v>1.045659328825534</v>
+        <v>1.042748870012364</v>
       </c>
       <c r="L19">
-        <v>1.01851417179791</v>
+        <v>0.9861888095830174</v>
       </c>
       <c r="M19">
-        <v>1.049301496224614</v>
+        <v>1.034744731448919</v>
       </c>
       <c r="N19">
-        <v>1.020811595292387</v>
+        <v>0.9889771925799246</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012757928173771</v>
+        <v>0.9570638536930378</v>
       </c>
       <c r="D20">
-        <v>1.042179717204134</v>
+        <v>1.028509170346657</v>
       </c>
       <c r="E20">
-        <v>1.014812159273299</v>
+        <v>0.9703874431273927</v>
       </c>
       <c r="F20">
-        <v>1.045760505601839</v>
+        <v>1.020044538858642</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036311190343522</v>
+        <v>1.048503134620267</v>
       </c>
       <c r="J20">
-        <v>1.01911473107669</v>
+        <v>0.9863564672211879</v>
       </c>
       <c r="K20">
-        <v>1.045531809803189</v>
+        <v>1.042068583552617</v>
       </c>
       <c r="L20">
-        <v>1.018261425796254</v>
+        <v>0.9849717765858738</v>
       </c>
       <c r="M20">
-        <v>1.04910029797675</v>
+        <v>1.033743854197793</v>
       </c>
       <c r="N20">
-        <v>1.020561990888912</v>
+        <v>0.9877572065413101</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011537474973425</v>
+        <v>0.9505942527322495</v>
       </c>
       <c r="D21">
-        <v>1.041556525464579</v>
+        <v>1.02529268885135</v>
       </c>
       <c r="E21">
-        <v>1.013775132927139</v>
+        <v>0.9652648448969376</v>
       </c>
       <c r="F21">
-        <v>1.044898212602746</v>
+        <v>1.015737242564389</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036201212258058</v>
+        <v>1.047516849382827</v>
       </c>
       <c r="J21">
-        <v>1.018304425493793</v>
+        <v>0.9823133712930042</v>
       </c>
       <c r="K21">
-        <v>1.045116106411786</v>
+        <v>1.039810220746605</v>
       </c>
       <c r="L21">
-        <v>1.017439995518422</v>
+        <v>0.9809355839330499</v>
       </c>
       <c r="M21">
-        <v>1.04844554686225</v>
+        <v>1.030426478310487</v>
       </c>
       <c r="N21">
-        <v>1.019750534579144</v>
+        <v>0.9837083689531587</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010770678651338</v>
+        <v>0.9464183290505016</v>
       </c>
       <c r="D22">
-        <v>1.041164612041344</v>
+        <v>1.023228413208459</v>
       </c>
       <c r="E22">
-        <v>1.013123987446477</v>
+        <v>0.9619691519496821</v>
       </c>
       <c r="F22">
-        <v>1.044356288919601</v>
+        <v>1.012971373399799</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036130622730941</v>
+        <v>1.046872213107808</v>
       </c>
       <c r="J22">
-        <v>1.017794979510281</v>
+        <v>0.9797047110828347</v>
       </c>
       <c r="K22">
-        <v>1.044853880651865</v>
+        <v>1.038353340420023</v>
       </c>
       <c r="L22">
-        <v>1.016923739226637</v>
+        <v>0.9783336255295959</v>
       </c>
       <c r="M22">
-        <v>1.04803339910091</v>
+        <v>1.028290171324364</v>
       </c>
       <c r="N22">
-        <v>1.019240365123901</v>
+        <v>0.9810960041462735</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01117711978751</v>
+        <v>0.9486427357990319</v>
       </c>
       <c r="D23">
-        <v>1.041372380467145</v>
+        <v>1.024326797380979</v>
       </c>
       <c r="E23">
-        <v>1.013469088978251</v>
+        <v>0.9637236311164786</v>
       </c>
       <c r="F23">
-        <v>1.044643550104049</v>
+        <v>1.014443239996557</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036168180026246</v>
+        <v>1.047216309971236</v>
       </c>
       <c r="J23">
-        <v>1.018065044001812</v>
+        <v>0.9810941554489491</v>
       </c>
       <c r="K23">
-        <v>1.044992972219733</v>
+        <v>1.039129242101974</v>
       </c>
       <c r="L23">
-        <v>1.017197396497385</v>
+        <v>0.9797192852885589</v>
       </c>
       <c r="M23">
-        <v>1.048251931393134</v>
+        <v>1.029427587939059</v>
       </c>
       <c r="N23">
-        <v>1.019510813137988</v>
+        <v>0.9824874216827588</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012778398605191</v>
+        <v>0.9571705713027239</v>
       </c>
       <c r="D24">
-        <v>1.042190163461667</v>
+        <v>1.028562404944308</v>
       </c>
       <c r="E24">
-        <v>1.014829559943921</v>
+        <v>0.9704721122674667</v>
       </c>
       <c r="F24">
-        <v>1.045774965890625</v>
+        <v>1.020115807206325</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036313009646311</v>
+        <v>1.048519262556185</v>
       </c>
       <c r="J24">
-        <v>1.019128316372385</v>
+        <v>0.9864231708752552</v>
       </c>
       <c r="K24">
-        <v>1.045538764503777</v>
+        <v>1.042105835809576</v>
       </c>
       <c r="L24">
-        <v>1.018275200715029</v>
+        <v>0.9850384028253119</v>
       </c>
       <c r="M24">
-        <v>1.049111266720609</v>
+        <v>1.03379864158327</v>
       </c>
       <c r="N24">
-        <v>1.020575595477286</v>
+        <v>0.9878240049222176</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014639006152575</v>
+        <v>0.9666338858006615</v>
       </c>
       <c r="D25">
-        <v>1.043138707059503</v>
+        <v>1.033304104308055</v>
       </c>
       <c r="E25">
-        <v>1.016412102081107</v>
+        <v>0.9780024141045907</v>
       </c>
       <c r="F25">
-        <v>1.047088868053269</v>
+        <v>1.026462160522933</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036474774699796</v>
+        <v>1.04992816287427</v>
       </c>
       <c r="J25">
-        <v>1.020362288348951</v>
+        <v>0.9923388002969127</v>
       </c>
       <c r="K25">
-        <v>1.046168350083454</v>
+        <v>1.045406515023624</v>
       </c>
       <c r="L25">
-        <v>1.019526835130779</v>
+        <v>0.9909520908382193</v>
       </c>
       <c r="M25">
-        <v>1.050106337201052</v>
+        <v>1.038663118517553</v>
       </c>
       <c r="N25">
-        <v>1.021811319835597</v>
+        <v>0.9937480352161857</v>
       </c>
     </row>
   </sheetData>
